--- a/OIDs Template.xlsx
+++ b/OIDs Template.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gutierrj\Downloads\data_transfer\data_transfer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gutierrj\source\data_transfer\data_transfer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D47101-1666-480A-B796-A92A659875CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686EA505-94DF-4EEE-B857-209A388F0DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{92C1C962-718B-4E44-9E2C-823D9C78B2DC}"/>
+    <workbookView xWindow="17910" yWindow="2535" windowWidth="9735" windowHeight="11385" activeTab="2" xr2:uid="{92C1C962-718B-4E44-9E2C-823D9C78B2DC}"/>
   </bookViews>
   <sheets>
     <sheet name="HYSYS" sheetId="1" r:id="rId1"/>
     <sheet name="A+" sheetId="2" r:id="rId2"/>
+    <sheet name="ProII" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="61">
   <si>
     <t>Class</t>
   </si>
@@ -214,6 +215,12 @@
   </si>
   <si>
     <t>Distillation</t>
+  </si>
+  <si>
+    <t>Simple HX</t>
+  </si>
+  <si>
+    <t>Flash</t>
   </si>
 </sst>
 </file>
@@ -991,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67D9E2D-5B0D-474A-BD74-7FA7621D7432}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,4 +1538,83 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE46092-EE65-4F8F-907C-C8F2C5E00A70}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/OIDs Template.xlsx
+++ b/OIDs Template.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gutierrj\source\data_transfer\data_transfer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gutierrj\source\repos\datatransfer-ProII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686EA505-94DF-4EEE-B857-209A388F0DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B58F4FB-9318-4A58-AA7E-263B780052D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17910" yWindow="2535" windowWidth="9735" windowHeight="11385" activeTab="2" xr2:uid="{92C1C962-718B-4E44-9E2C-823D9C78B2DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{92C1C962-718B-4E44-9E2C-823D9C78B2DC}"/>
   </bookViews>
   <sheets>
     <sheet name="HYSYS" sheetId="1" r:id="rId1"/>
     <sheet name="A+" sheetId="2" r:id="rId2"/>
     <sheet name="ProII" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -227,7 +228,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,13 +599,13 @@
       <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.375" customWidth="1"/>
+    <col min="2" max="2" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -615,7 +616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -626,7 +627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -637,7 +638,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -648,7 +649,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -659,7 +660,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -670,7 +671,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -681,7 +682,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -692,7 +693,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -703,7 +704,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -714,7 +715,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -725,7 +726,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -736,7 +737,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -747,7 +748,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -758,7 +759,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -769,7 +770,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -780,7 +781,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -791,7 +792,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -802,7 +803,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -813,7 +814,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -824,7 +825,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -835,7 +836,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -846,7 +847,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -857,7 +858,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -868,7 +869,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -879,7 +880,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -890,7 +891,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -901,7 +902,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -912,7 +913,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -923,7 +924,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -934,7 +935,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -945,7 +946,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -956,7 +957,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -967,7 +968,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -978,7 +979,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1002,15 +1003,15 @@
       <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.875" customWidth="1"/>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="34.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1024,7 +1025,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1038,7 +1039,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1049,7 +1050,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1063,7 +1064,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1074,7 +1075,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1085,7 +1086,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1096,7 +1097,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1107,7 +1108,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1121,7 +1122,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1132,7 +1133,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1143,7 +1144,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1154,7 +1155,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1168,7 +1169,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1179,7 +1180,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -1190,7 +1191,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -1201,7 +1202,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1212,7 +1213,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1223,7 +1224,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1245,7 +1246,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1256,7 +1257,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1267,7 +1268,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1289,7 +1290,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1300,7 +1301,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1311,7 +1312,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1322,7 +1323,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -1336,7 +1337,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -1350,7 +1351,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1364,7 +1365,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1378,7 +1379,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1392,7 +1393,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -1403,7 +1404,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -1414,7 +1415,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -1425,7 +1426,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -1436,7 +1437,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -1447,7 +1448,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -1458,7 +1459,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -1469,7 +1470,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -1480,7 +1481,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -1491,7 +1492,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -1502,7 +1503,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -1513,7 +1514,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -1524,7 +1525,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -1545,18 +1546,18 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1570,7 +1571,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -1581,7 +1582,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1592,7 +1593,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1603,7 +1604,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -1617,4 +1618,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32405CFB-12A2-4D4C-83FD-9825A3FDAAF7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/OIDs Template.xlsx
+++ b/OIDs Template.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gutierrj\source\repos\datatransfer-ProII\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gutierrj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B58F4FB-9318-4A58-AA7E-263B780052D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851C1471-450F-4265-B679-B2A0E25C1DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{92C1C962-718B-4E44-9E2C-823D9C78B2DC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{92C1C962-718B-4E44-9E2C-823D9C78B2DC}"/>
   </bookViews>
   <sheets>
-    <sheet name="HYSYS" sheetId="1" r:id="rId1"/>
-    <sheet name="A+" sheetId="2" r:id="rId2"/>
+    <sheet name="A+" sheetId="2" r:id="rId1"/>
+    <sheet name="HYSYS" sheetId="1" r:id="rId2"/>
     <sheet name="ProII" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="74">
   <si>
     <t>Class</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Pump</t>
   </si>
   <si>
-    <t>Rigorous FireHeater</t>
-  </si>
-  <si>
     <t>FiredHeater</t>
   </si>
   <si>
@@ -222,13 +219,55 @@
   </si>
   <si>
     <t>Flash</t>
+  </si>
+  <si>
+    <t>FluidTransferCurve</t>
+  </si>
+  <si>
+    <t>Stages</t>
+  </si>
+  <si>
+    <t>Using AbeAdsDistillation classview go to ColumnSections</t>
+  </si>
+  <si>
+    <t>FireHeater</t>
+  </si>
+  <si>
+    <t>FluidProfiles</t>
+  </si>
+  <si>
+    <t>Inlet 1</t>
+  </si>
+  <si>
+    <t>Seperator-Utility.hsc</t>
+  </si>
+  <si>
+    <t>Compressor Curve-Utility</t>
+  </si>
+  <si>
+    <t>Deep Cut Turbo-Expander-Utility</t>
+  </si>
+  <si>
+    <t>Acid Gas Cleaning Using MDEA-Utility</t>
+  </si>
+  <si>
+    <t>Heater_Cooler-Utility.hsc, Q1</t>
+  </si>
+  <si>
+    <t>Heater_Cooler-Utility.hsc, Q2</t>
+  </si>
+  <si>
+    <t>Use main object OID</t>
+  </si>
+  <si>
+    <t>use AbeAdsDistillation classview, In ColumnSections</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,22 +631,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3A8943-2344-468F-8429-850A78A3C1A2}">
-  <dimension ref="A1:C35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67D9E2D-5B0D-474A-BD74-7FA7621D7432}">
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.375" customWidth="1"/>
-    <col min="2" max="2" width="28.75" customWidth="1"/>
+    <col min="1" max="1" width="32.90625" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="34.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -615,379 +656,558 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>629</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
       <c r="C4">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>696</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
       <c r="C8">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>928</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>1077</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>1079</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>1189</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="C15">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C17">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C13">
-        <v>2622</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>2633</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15">
-        <v>2634</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>2635</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17">
-        <v>2636</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
       <c r="C18">
-        <v>2637</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>1469</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19">
-        <v>2638</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>1470</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C20">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>1471</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C21">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>1472</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C22">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>1473</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C23">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>1474</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C24">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>1498</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C25">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>1499</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26">
+        <v>1500</v>
+      </c>
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28">
+        <v>1636</v>
+      </c>
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29">
+        <v>1656</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <v>1674</v>
+      </c>
+      <c r="D30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>24</v>
       </c>
-      <c r="C26">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>1691</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>24</v>
       </c>
-      <c r="C27">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>1709</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" t="s">
         <v>31</v>
       </c>
-      <c r="C31">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32">
-        <v>2279</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35">
-        <v>1748</v>
+      <c r="C42">
+        <v>2867</v>
+      </c>
+      <c r="D42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43">
+        <v>2960</v>
+      </c>
+      <c r="D43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45">
+        <v>2455</v>
       </c>
     </row>
   </sheetData>
@@ -996,24 +1216,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67D9E2D-5B0D-474A-BD74-7FA7621D7432}">
-  <dimension ref="A1:D45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3A8943-2344-468F-8429-850A78A3C1A2}">
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.875" customWidth="1"/>
-    <col min="2" max="2" width="24.25" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="34.375" customWidth="1"/>
+    <col min="1" max="1" width="32.36328125" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="32.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1021,519 +1241,439 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>151</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>173</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>79</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C8">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>243</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>608</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>616</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>582</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>668</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>669</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>670</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>671</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>672</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>673</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C21">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C22">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>746</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>834</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>839</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>844</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>851</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28">
+        <v>856</v>
+      </c>
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29">
+        <v>858</v>
+      </c>
+      <c r="D29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28">
-        <v>953</v>
-      </c>
-      <c r="D28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29">
-        <v>973</v>
-      </c>
-      <c r="D29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
       <c r="C30">
-        <v>1059</v>
-      </c>
-      <c r="D30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C31">
-        <v>1075</v>
+        <v>1155</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C32">
-        <v>1093</v>
+        <v>2174</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C33">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>1619</v>
+      </c>
+      <c r="D33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C34">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C35">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43">
-        <v>2337</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45">
-        <v>1832</v>
+        <v>2534</v>
       </c>
     </row>
   </sheetData>
@@ -1545,21 +1685,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE46092-EE65-4F8F-907C-C8F2C5E00A70}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="4" max="4" width="33.125" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" customWidth="1"/>
+    <col min="4" max="4" width="33.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1568,21 +1708,21 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1593,23 +1733,23 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>309</v>
@@ -1628,7 +1768,7 @@
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OIDs Template.xlsx
+++ b/OIDs Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gutierrj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851C1471-450F-4265-B679-B2A0E25C1DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFC5C2B-4857-4AAE-8F55-EABF69775693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{92C1C962-718B-4E44-9E2C-823D9C78B2DC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{92C1C962-718B-4E44-9E2C-823D9C78B2DC}"/>
   </bookViews>
   <sheets>
     <sheet name="A+" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="90">
   <si>
     <t>Class</t>
   </si>
@@ -261,19 +261,79 @@
   </si>
   <si>
     <t>use AbeAdsDistillation classview, In ColumnSections</t>
+  </si>
+  <si>
+    <t>ShellAndTubeHeatExchanger</t>
+  </si>
+  <si>
+    <t>Centrifugal Pump</t>
+  </si>
+  <si>
+    <t>Process Vessel</t>
+  </si>
+  <si>
+    <t>Control Valve</t>
+  </si>
+  <si>
+    <t>Centrifugal Compressor</t>
+  </si>
+  <si>
+    <t>Air Cooled HX</t>
+  </si>
+  <si>
+    <t>Air Cooled Exchanger</t>
+  </si>
+  <si>
+    <t>Stream</t>
+  </si>
+  <si>
+    <t>Primary Stream</t>
+  </si>
+  <si>
+    <t>Bulk Phase</t>
+  </si>
+  <si>
+    <t>Liquid Phase</t>
+  </si>
+  <si>
+    <t>Vapor Phase</t>
+  </si>
+  <si>
+    <t>Mixer</t>
+  </si>
+  <si>
+    <t>Splitter</t>
+  </si>
+  <si>
+    <t>Distilation Curves</t>
+  </si>
+  <si>
+    <t>Distilation Column and Trays</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -296,8 +356,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1219,7 +1284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3A8943-2344-468F-8429-850A78A3C1A2}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -1683,76 +1748,191 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE46092-EE65-4F8F-907C-C8F2C5E00A70}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" customWidth="1"/>
+    <col min="1" max="1" width="24.6328125" customWidth="1"/>
+    <col min="2" max="2" width="27.90625" customWidth="1"/>
     <col min="3" max="3" width="13.6328125" customWidth="1"/>
     <col min="4" max="4" width="33.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="1">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>316</v>
-      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>345</v>
-      </c>
+      <c r="B3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>108</v>
+      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="1">
+        <v>150</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>309</v>
+      <c r="B5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="1">
+        <v>220</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="1">
+        <v>267</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="1">
+        <v>315</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="1">
+        <v>410</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="1">
+        <v>429</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="1">
+        <v>429</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="1">
+        <v>447</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="1">
+        <v>472</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="1">
+        <v>533</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/OIDs Template.xlsx
+++ b/OIDs Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gutierrj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFC5C2B-4857-4AAE-8F55-EABF69775693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6DDE08-5FBB-4D39-AFCD-F3A85A89D2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{92C1C962-718B-4E44-9E2C-823D9C78B2DC}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="A+" sheetId="2" r:id="rId1"/>
     <sheet name="HYSYS" sheetId="1" r:id="rId2"/>
     <sheet name="ProII" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="89">
   <si>
     <t>Class</t>
   </si>
@@ -263,33 +262,12 @@
     <t>use AbeAdsDistillation classview, In ColumnSections</t>
   </si>
   <si>
-    <t>ShellAndTubeHeatExchanger</t>
-  </si>
-  <si>
-    <t>Centrifugal Pump</t>
-  </si>
-  <si>
-    <t>Process Vessel</t>
-  </si>
-  <si>
-    <t>Control Valve</t>
-  </si>
-  <si>
-    <t>Centrifugal Compressor</t>
-  </si>
-  <si>
     <t>Air Cooled HX</t>
   </si>
   <si>
-    <t>Air Cooled Exchanger</t>
-  </si>
-  <si>
     <t>Stream</t>
   </si>
   <si>
-    <t>Primary Stream</t>
-  </si>
-  <si>
     <t>Bulk Phase</t>
   </si>
   <si>
@@ -305,10 +283,28 @@
     <t>Splitter</t>
   </si>
   <si>
-    <t>Distilation Curves</t>
-  </si>
-  <si>
     <t>Distilation Column and Trays</t>
+  </si>
+  <si>
+    <t>PumpAround</t>
+  </si>
+  <si>
+    <t>Tubine</t>
+  </si>
+  <si>
+    <t>SideColumn</t>
+  </si>
+  <si>
+    <t>DistillationPortData</t>
+  </si>
+  <si>
+    <t>ValvePortData</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>RigorousExchanger</t>
   </si>
 </sst>
 </file>
@@ -1748,15 +1744,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE46092-EE65-4F8F-907C-C8F2C5E00A70}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" customWidth="1"/>
+    <col min="1" max="1" width="37.54296875" customWidth="1"/>
     <col min="2" max="2" width="27.90625" customWidth="1"/>
     <col min="3" max="3" width="13.6328125" customWidth="1"/>
     <col min="4" max="4" width="33.08984375" customWidth="1"/>
@@ -1781,10 +1777,10 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -1793,10 +1789,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1805,10 +1801,10 @@
         <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -1817,10 +1813,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1829,127 +1825,167 @@
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C12" s="1">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C13" s="1">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="C14" s="1">
+        <v>596</v>
+      </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="1">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>88</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32405CFB-12A2-4D4C-83FD-9825A3FDAAF7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/OIDs Template.xlsx
+++ b/OIDs Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gutierrj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gutierrj\source\repos\datatransfer-ProII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6DDE08-5FBB-4D39-AFCD-F3A85A89D2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC557C0-5120-4F44-AF95-3118768139A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{92C1C962-718B-4E44-9E2C-823D9C78B2DC}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{92C1C962-718B-4E44-9E2C-823D9C78B2DC}"/>
   </bookViews>
   <sheets>
     <sheet name="A+" sheetId="2" r:id="rId1"/>
@@ -311,7 +311,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -699,15 +699,15 @@
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.90625" customWidth="1"/>
-    <col min="2" max="2" width="24.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="4" max="4" width="34.36328125" customWidth="1"/>
+    <col min="1" max="1" width="32.875" customWidth="1"/>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="34.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -721,7 +721,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -735,7 +735,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -746,7 +746,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -760,7 +760,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -771,7 +771,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -782,7 +782,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -793,7 +793,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -807,7 +807,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -818,7 +818,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -832,7 +832,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -846,7 +846,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -857,7 +857,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -871,7 +871,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -882,7 +882,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -893,7 +893,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -904,7 +904,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -915,7 +915,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -929,7 +929,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -943,7 +943,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -957,7 +957,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -971,7 +971,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -985,7 +985,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -999,7 +999,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -1284,15 +1284,15 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.36328125" customWidth="1"/>
-    <col min="2" max="2" width="28.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="32.81640625" customWidth="1"/>
+    <col min="1" max="1" width="32.375" customWidth="1"/>
+    <col min="2" max="2" width="28.75" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1747,18 +1747,18 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="37.54296875" customWidth="1"/>
-    <col min="2" max="2" width="27.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" customWidth="1"/>
-    <col min="4" max="4" width="33.08984375" customWidth="1"/>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>77</v>
       </c>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>78</v>
       </c>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>79</v>
       </c>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>80</v>
       </c>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -1977,12 +1977,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>88</v>
       </c>
-      <c r="B20" t="s">
-        <v>21</v>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
